--- a/results/releases_by_year.xlsx
+++ b/results/releases_by_year.xlsx
@@ -458,7 +458,7 @@
         <v>1942</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1943</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1944</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1945</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1946</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1947</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1954</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1955</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1956</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1958</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1959</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1960</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1961</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1962</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1963</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1964</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1965</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1966</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1967</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1968</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1969</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1970</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1971</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1972</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1973</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1974</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1975</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1976</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1977</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1978</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1979</v>
       </c>
       <c r="B33" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1980</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1981</v>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1982</v>
       </c>
       <c r="B36" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1983</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1984</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1985</v>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1986</v>
       </c>
       <c r="B40" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1987</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1988</v>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1989</v>
       </c>
       <c r="B43" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1990</v>
       </c>
       <c r="B44" t="n">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1991</v>
       </c>
       <c r="B45" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1992</v>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1993</v>
       </c>
       <c r="B47" t="n">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1994</v>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1995</v>
       </c>
       <c r="B49" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1996</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1997</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1998</v>
       </c>
       <c r="B52" t="n">
-        <v>36</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1999</v>
       </c>
       <c r="B53" t="n">
-        <v>39</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>2000</v>
       </c>
       <c r="B54" t="n">
-        <v>37</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>2001</v>
       </c>
       <c r="B55" t="n">
-        <v>45</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>2002</v>
       </c>
       <c r="B56" t="n">
-        <v>51</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>2003</v>
       </c>
       <c r="B57" t="n">
-        <v>59</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>2004</v>
       </c>
       <c r="B58" t="n">
-        <v>64</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>2005</v>
       </c>
       <c r="B59" t="n">
-        <v>80</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>2006</v>
       </c>
       <c r="B60" t="n">
-        <v>96</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>2007</v>
       </c>
       <c r="B61" t="n">
-        <v>88</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2008</v>
       </c>
       <c r="B62" t="n">
-        <v>135</v>
+        <v>708</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>2009</v>
       </c>
       <c r="B63" t="n">
-        <v>152</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>2010</v>
       </c>
       <c r="B64" t="n">
-        <v>192</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>2011</v>
       </c>
       <c r="B65" t="n">
-        <v>185</v>
+        <v>958</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>2012</v>
       </c>
       <c r="B66" t="n">
-        <v>236</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>2013</v>
       </c>
       <c r="B67" t="n">
-        <v>286</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>2014</v>
       </c>
       <c r="B68" t="n">
-        <v>352</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>2015</v>
       </c>
       <c r="B69" t="n">
-        <v>555</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>2016</v>
       </c>
       <c r="B70" t="n">
-        <v>901</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>2017</v>
       </c>
       <c r="B71" t="n">
-        <v>1030</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>2018</v>
       </c>
       <c r="B72" t="n">
-        <v>1146</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>2019</v>
       </c>
       <c r="B73" t="n">
-        <v>1030</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>2020</v>
       </c>
       <c r="B74" t="n">
-        <v>953</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>2021</v>
       </c>
       <c r="B75" t="n">
-        <v>592</v>
+        <v>2471</v>
       </c>
     </row>
   </sheetData>
